--- a/할일&일정.xlsx
+++ b/할일&일정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kclient\Desktop\Git\Orpheus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Provider\Desktop\Git\Orpheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16556684-D28B-42B3-BFD2-E8117FB0158E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593947E9-05CD-4C2B-9E69-46F97EB522E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,6 @@
     <t>캐릭터 이동 부드럽게</t>
   </si>
   <si>
-    <t>몬스터 피격 판정 (랜덤 소환)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기타 사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,14 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10/31 ~ 11/14 (예정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>블록 애니메이션 (게임 시작 직전 321 할 때 배치되것처럼) 
 (하면 좋고 안하면 안하는대로 좋고)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +105,18 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해치웠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/29 ~ 11/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 피격 판정 (랜덤 소환) / 배경 스크롤링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +124,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +140,24 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -178,7 +199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,11 +209,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,7 +538,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -524,84 +551,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
+      <c r="A1" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>9</v>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/할일&일정.xlsx
+++ b/할일&일정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Provider\Desktop\Git\Orpheus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangj\Desktop\Orpheus Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593947E9-05CD-4C2B-9E69-46F97EB522E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0804DC40-E717-4E06-AE2C-5BD651F5E6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>할일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,42 @@
   </si>
   <si>
     <t>몬스터 피격 판정 (랜덤 소환) / 배경 스크롤링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할 일 (명진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 / 몬스터 3D 스탠드 만들기, 맵 3D 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~11/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 개그캐 &gt; 여캐 &gt; 남캐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신캐 (미확정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본, 기존 맵 2가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신캐 (확정), 3D 스탠드 (레어), 신맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신캐: 3DOGS, 스킬라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,13 +571,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E881FD3-2ED6-41A4-AFE4-7C14AB894F40}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="25.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="54.5" style="1" bestFit="1" customWidth="1"/>
@@ -550,7 +586,7 @@
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -567,7 +603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="25.5" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -580,7 +616,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="33">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -594,7 +630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="33">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -602,17 +638,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="25.5" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="25.5" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="25.5" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -620,12 +656,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="33">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="25.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -634,6 +670,44 @@
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" customHeight="1">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" customHeight="1">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="25.5" customHeight="1">
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="25.5" customHeight="1">
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/할일&일정.xlsx
+++ b/할일&일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangj\Desktop\Orpheus Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0804DC40-E717-4E06-AE2C-5BD651F5E6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF33F99-F5BD-42C6-8EFE-9EFCDB87F2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>할일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,14 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진짜 미연시;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12월 7일까지 ASAP (11월 7일까지면 좋음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 / 몬스터 3D 스탠드 만들기, 맵 3D 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무기한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,6 +141,22 @@
   </si>
   <si>
     <t>신캐: 3DOGS, 스킬라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 스탠드 블랜더 확인 / 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/29 ~ 11/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 / 몬스터 3D 스탠드 만들기, 맵 3D 구현, 패널</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +194,14 @@
     </font>
     <font>
       <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -235,7 +247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,6 +267,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,13 +586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E881FD3-2ED6-41A4-AFE4-7C14AB894F40}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="54.5" style="1" bestFit="1" customWidth="1"/>
@@ -586,9 +601,9 @@
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" customHeight="1">
+    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -600,10 +615,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -616,98 +631,97 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="33">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="18" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="33">
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1">
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" customHeight="1">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="33">
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="25.5" customHeight="1">
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="25.5" customHeight="1">
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="25.5" customHeight="1">
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="25.5" customHeight="1">
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/할일&일정.xlsx
+++ b/할일&일정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangj\Desktop\Orpheus Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF33F99-F5BD-42C6-8EFE-9EFCDB87F2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3B70DE-E589-4677-A518-CBA112134B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>할일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10/29 ~ 11/14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터 피격 판정 (랜덤 소환) / 배경 스크롤링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>~11/21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 개그캐 &gt; 여캐 &gt; 남캐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,31 +124,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본, 기존 맵 2가지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신캐 (확정), 3D 스탠드 (레어), 신맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신캐: 3DOGS, 스킬라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 스탠드 블랜더 확인 / 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>알파</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10/29 ~ 11/19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 / 몬스터 3D 스탠드 만들기, 맵 3D 구현, 패널</t>
+    <t>~ 2022-12-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 2022-12-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 블랜더 확인 / 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신캐 (확정), 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션, 맵 3D 구현, 패널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오르페우스 모션, 기존 맵 2가지, 던파 애니메이션 백스텝 참조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E881FD3-2ED6-41A4-AFE4-7C14AB894F40}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -634,13 +630,13 @@
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44909</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -649,10 +645,13 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44912</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -662,6 +661,9 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="4">
+        <v>44919</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -688,40 +690,40 @@
     </row>
     <row r="16" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/할일&일정.xlsx
+++ b/할일&일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangj\Desktop\Orpheus Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3B70DE-E589-4677-A518-CBA112134B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B011F86C-AFBC-424A-BEF1-7BCC2CD49E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>할일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,14 +129,6 @@
   </si>
   <si>
     <t>알파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 2022-12-17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 2022-12-24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -584,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E881FD3-2ED6-41A4-AFE4-7C14AB894F40}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -630,13 +622,13 @@
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="4">
-        <v>44909</v>
+        <v>44932</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -651,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>44912</v>
+        <v>44939</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -662,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="4">
-        <v>44919</v>
+        <v>44946</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -695,24 +687,24 @@
     </row>
     <row r="17" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44932</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>24</v>
+      <c r="D18" s="4">
+        <v>44939</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/할일&일정.xlsx
+++ b/할일&일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangj\Desktop\Orpheus Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B011F86C-AFBC-424A-BEF1-7BCC2CD49E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC6421C-FD04-4832-9FA0-FB87555C9CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
   </bookViews>
@@ -577,7 +577,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
@@ -696,7 +696,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
@@ -706,8 +706,11 @@
       <c r="D18" s="4">
         <v>44939</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="4">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>

--- a/할일&일정.xlsx
+++ b/할일&일정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangj\Desktop\Orpheus Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kclient\Desktop\Git\Orpheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC6421C-FD04-4832-9FA0-FB87555C9CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E68E557-C25D-46CB-AAAA-8212630D23EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>할일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,11 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뒤에서 따라 잡힐때 공격력이 더 많으면 죽이고 넘어감
-플레이어한태도 동일한 세팅을 하면 될듯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,20 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>블록 애니메이션 (게임 시작 직전 321 할 때 배치되것처럼) 
-(하면 좋고 안하면 안하는대로 좋고)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경 움직이는거 (파도 레이어 5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파도 배경을 하나의 오브젝트로 취급 
-(배경마다 레이어가 달라질수 있어서)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스타트 화면 &amp; 결과 창</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,18 +77,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해치웠나?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터 피격 판정 (랜덤 소환) / 배경 스크롤링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>할 일 (명진)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,14 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>알파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵 블랜더 확인 / 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신캐 (확정), 애니메이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +110,22 @@
   </si>
   <si>
     <t>오르페우스 모션, 기존 맵 2가지, 던파 애니메이션 백스텝 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 배치 및 이동, 카메라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크립트 시스템 (파싱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발하는데 좀 걸릴듯, csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안해오면 커피사드림; 어림도 없지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,10 +558,10 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="54.5" style="1" bestFit="1" customWidth="1"/>
@@ -589,9 +570,9 @@
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -600,108 +581,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4">
         <v>44863</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="4">
-        <v>44932</v>
+        <v>44939</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>44939</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4">
-        <v>44946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="17" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4">
         <v>44932</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4">
         <v>44939</v>
@@ -710,15 +677,15 @@
         <v>44564</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/할일&일정.xlsx
+++ b/할일&일정.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kclient\Desktop\Git\Orpheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E68E557-C25D-46CB-AAAA-8212630D23EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F249A0-95E2-4C2A-8C9C-A58557E07E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
+    <workbookView xWindow="14535" yWindow="0" windowWidth="10650" windowHeight="12645" activeTab="1" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="스크립트 예시" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>할일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +127,62 @@
   </si>
   <si>
     <t>안해오면 커피사드림; 어림도 없지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 이동 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 코드 정리, 부드럽게 정리 (포물선으로 움직이도록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 카메라, 라이트 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fade / dissolve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명중입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕히계세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show (이미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene (배경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(스크립트)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E881FD3-2ED6-41A4-AFE4-7C14AB894F40}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -611,80 +668,104 @@
       <c r="D3" s="4">
         <v>44939</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>44939</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
+      <c r="A4" s="5"/>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="4">
+        <v>44953</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4">
-        <v>44932</v>
-      </c>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
     </row>
     <row r="18" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4">
-        <v>44939</v>
-      </c>
-      <c r="E18" s="4">
-        <v>44564</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44939</v>
+      </c>
+      <c r="E20" s="4">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -693,4 +774,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CA49FA-94B1-47C5-A952-CA40C534DE57}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/할일&일정.xlsx
+++ b/할일&일정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kclient\Desktop\Git\Orpheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F249A0-95E2-4C2A-8C9C-A58557E07E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95408EC4-6F67-428E-BFA6-3D76E52716A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14535" yWindow="0" windowWidth="10650" windowHeight="12645" activeTab="1" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E881FD3-2ED6-41A4-AFE4-7C14AB894F40}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -690,7 +690,7 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="4">
-        <v>44953</v>
+        <v>44967</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -780,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CA49FA-94B1-47C5-A952-CA40C534DE57}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/할일&일정.xlsx
+++ b/할일&일정.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kclient\Desktop\Git\Orpheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95408EC4-6F67-428E-BFA6-3D76E52716A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8796351D-9800-46AF-A43B-39F857B0A3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{784D1268-3BB7-4C82-8B7C-E98AC9F6285D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>할일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,14 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/17 ~ 10/31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스타트 화면 &amp; 결과 창</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,14 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>할 일 (명진)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 개그캐 &gt; 여캐 &gt; 남캐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,18 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 이동 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 코드 정리, 부드럽게 정리 (포물선으로 움직이도록)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵 카메라, 라이트 제거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fade / dissolve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +155,26 @@
   </si>
   <si>
     <t>(스크립트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 이동 부드럽게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 위치로 움직이도록 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밟고있는 발판 색 바뀌게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 (명진)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +227,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -273,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -296,6 +296,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E881FD3-2ED6-41A4-AFE4-7C14AB894F40}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -623,13 +629,12 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="54.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -638,135 +643,127 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="4">
         <v>44863</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9">
         <v>44939</v>
       </c>
-      <c r="E3" s="4">
-        <v>44939</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="4">
-        <v>44967</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+    <row r="18" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="18" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="4">
-        <v>44932</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D20" s="4">
-        <v>44939</v>
-      </c>
-      <c r="E20" s="4">
         <v>44564</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -793,59 +790,59 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
